--- a/data/p5_rm.xlsx
+++ b/data/p5_rm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /proposal_measures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEAC892D-FCCF-E447-841C-5FEF022C19B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B568D4-C525-6F44-A485-872549FC8533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{3E735A50-DF88-0946-B9C2-60DC6BF09B85}"/>
   </bookViews>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>session</t>
   </si>
   <si>
-    <t xml:space="preserve">pe </t>
+    <t>pe_1</t>
+  </si>
+  <si>
+    <t>pe_2</t>
   </si>
 </sst>
 </file>
@@ -390,60 +393,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2786A0A-3DDA-AA45-9034-D2DF3E4D68CD}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
